--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -48,7 +48,190 @@
     <t>注释</t>
   </si>
   <si>
+    <t>SelectFile</t>
+  </si>
+  <si>
     <t>选择文件</t>
+  </si>
+  <si>
+    <t>SaveFile</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>DeleteFile</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>UpdateFile</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>MergeFile</t>
+  </si>
+  <si>
+    <t>合并</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>Descript</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>Inspect</t>
+  </si>
+  <si>
+    <t>视图面板</t>
+  </si>
+  <si>
+    <t>Make Transition</t>
+  </si>
+  <si>
+    <t>连线</t>
+  </si>
+  <si>
+    <t>Delete Node</t>
+  </si>
+  <si>
+    <t>删除节点</t>
+  </si>
+  <si>
+    <t>Remove Parent</t>
+  </si>
+  <si>
+    <t>移除父节点</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>DeleteNodeConfirm</t>
+  </si>
+  <si>
+    <t>确定要删除节点吗？</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the node？</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>DeleteParentConfirm</t>
+  </si>
+  <si>
+    <t>确定要删除父节点吗？</t>
+  </si>
+  <si>
+    <t>Are you sure you want to remove the parent node?</t>
+  </si>
+  <si>
+    <t>CompositeNode</t>
+  </si>
+  <si>
+    <t>组合节点</t>
+  </si>
+  <si>
+    <t>DecoratorNode</t>
+  </si>
+  <si>
+    <t>修饰节点</t>
+  </si>
+  <si>
+    <t>ConditionsNode</t>
+  </si>
+  <si>
+    <t>条件节点</t>
+  </si>
+  <si>
+    <t>ActionNode</t>
+  </si>
+  <si>
+    <t>行为节点</t>
+  </si>
+  <si>
+    <t>Add Node</t>
+  </si>
+  <si>
+    <t>添加节点</t>
+  </si>
+  <si>
+    <t>AddSubTree</t>
+  </si>
+  <si>
+    <t>添加子树</t>
+  </si>
+  <si>
+    <t>MultipleRootNode</t>
+  </si>
+  <si>
+    <t>有多个根节点</t>
+  </si>
+  <si>
+    <t>There are multiple root nodes</t>
+  </si>
+  <si>
+    <t>MustBeARootNode</t>
+  </si>
+  <si>
+    <t>必须有一个根节点</t>
+  </si>
+  <si>
+    <t>There must be a root node</t>
+  </si>
+  <si>
+    <t>RootCannotHaveParent</t>
+  </si>
+  <si>
+    <t>跟节点 ： {0}  不能有父节点</t>
+  </si>
+  <si>
+    <t>The root node: {0} can't have a parent node</t>
+  </si>
+  <si>
+    <t>NodeCannotHaveChilds</t>
+  </si>
+  <si>
+    <t>节点：{0} {1} 不能有子节点</t>
+  </si>
+  <si>
+    <t>The node: {0} {1}  cannot have child nodes</t>
   </si>
 </sst>
 </file>
@@ -714,8 +897,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,12 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,98 +1264,444 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7.49166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5166666666667" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="59.1333333333333" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -232,6 +232,405 @@
   </si>
   <si>
     <t>The node: {0} {1}  cannot have child nodes</t>
+  </si>
+  <si>
+    <t>FileDoesNotExist</t>
+  </si>
+  <si>
+    <t>文件不存在：{0}</t>
+  </si>
+  <si>
+    <t>File does not exist:{0}</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>FileNameCannotEmpty</t>
+  </si>
+  <si>
+    <t>文件名不能为空</t>
+  </si>
+  <si>
+    <t>The file name cannot be empty</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>好的</t>
+  </si>
+  <si>
+    <t>FileNameTooLong</t>
+  </si>
+  <si>
+    <t>文件名过长，不能大于20个字符</t>
+  </si>
+  <si>
+    <t>The file name is too long and cannot exceed 20 characters</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>替换</t>
+  </si>
+  <si>
+    <t>FileExistWantReplace</t>
+  </si>
+  <si>
+    <t>文件已存在, 是否替换新文件</t>
+  </si>
+  <si>
+    <t>The file already exists. Do you want to replace the file</t>
+  </si>
+  <si>
+    <t>SelectConfigFile</t>
+  </si>
+  <si>
+    <t>选择配置文件</t>
+  </si>
+  <si>
+    <t>Select a config file</t>
+  </si>
+  <si>
+    <t>ID:{0}</t>
+  </si>
+  <si>
+    <t>NodeId</t>
+  </si>
+  <si>
+    <t>节点ID</t>
+  </si>
+  <si>
+    <t>NodeID</t>
+  </si>
+  <si>
+    <t>PrintParentPaths</t>
+  </si>
+  <si>
+    <t>打印节点所有父节点路径</t>
+  </si>
+  <si>
+    <t>Prints all parent paths</t>
+  </si>
+  <si>
+    <t>ClassIdentification</t>
+  </si>
+  <si>
+    <t>类标识_{0}</t>
+  </si>
+  <si>
+    <t>Class identification _ {0}</t>
+  </si>
+  <si>
+    <t>ParentNode</t>
+  </si>
+  <si>
+    <t>父节点_{0}</t>
+  </si>
+  <si>
+    <t>ParentNode_{0}</t>
+  </si>
+  <si>
+    <t>BelongSubTree</t>
+  </si>
+  <si>
+    <t>所属子树ID:{0}</t>
+  </si>
+  <si>
+    <t>Belong to SubTreeID:{0}</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>RootNode</t>
+  </si>
+  <si>
+    <t>根节点</t>
+  </si>
+  <si>
+    <t>SubTreeEntryNode</t>
+  </si>
+  <si>
+    <t>子树入口节点</t>
+  </si>
+  <si>
+    <t>SubTree entry node</t>
+  </si>
+  <si>
+    <t>SyncMoveChild</t>
+  </si>
+  <si>
+    <t>同步移动子节点</t>
+  </si>
+  <si>
+    <t>Move the child node synchronously</t>
+  </si>
+  <si>
+    <t>FunctionComposite</t>
+  </si>
+  <si>
+    <t>组合节点功能描述</t>
+  </si>
+  <si>
+    <t>Function description of the composite node</t>
+  </si>
+  <si>
+    <t>AddGroup</t>
+  </si>
+  <si>
+    <t>添加组</t>
+  </si>
+  <si>
+    <t>IfNodeMaxChild</t>
+  </si>
+  <si>
+    <t>判断节点 {0} 最多只能有三个子节点</t>
+  </si>
+  <si>
+    <t>If Node {0} can have a maximum of three child nodes</t>
+  </si>
+  <si>
+    <t>NodeType</t>
+  </si>
+  <si>
+    <t>节点类型</t>
+  </si>
+  <si>
+    <t>ExecuteConditional</t>
+  </si>
+  <si>
+    <t>执行条件</t>
+  </si>
+  <si>
+    <t>Execute conditional</t>
+  </si>
+  <si>
+    <t>DefaultResult</t>
+  </si>
+  <si>
+    <t>默认返回结果</t>
+  </si>
+  <si>
+    <t>Default return result</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>AddCondition</t>
+  </si>
+  <si>
+    <t>添加条件</t>
+  </si>
+  <si>
+    <t>NoParameterCanBeAdd</t>
+  </si>
+  <si>
+    <t>没有参数可添加，请先添加参数</t>
+  </si>
+  <si>
+    <t>No parameters can be added, please add parameters</t>
+  </si>
+  <si>
+    <t>NoParameter</t>
+  </si>
+  <si>
+    <t>无可添加的参数</t>
+  </si>
+  <si>
+    <t>No parameters can be added</t>
+  </si>
+  <si>
+    <t>ChildNodePriority</t>
+  </si>
+  <si>
+    <t>子节点:{0} 权值:</t>
+  </si>
+  <si>
+    <t>Child node :{0}  priority</t>
+  </si>
+  <si>
+    <t>RepetitionsTimes</t>
+  </si>
+  <si>
+    <t>重复执行次数</t>
+  </si>
+  <si>
+    <t>Number of repetitions</t>
+  </si>
+  <si>
+    <t>SubTreeValue</t>
+  </si>
+  <si>
+    <t>子树值</t>
+  </si>
+  <si>
+    <t>SubTreeType</t>
+  </si>
+  <si>
+    <t>子树类型</t>
+  </si>
+  <si>
+    <t>ConfigFile</t>
+  </si>
+  <si>
+    <t>配置文件</t>
+  </si>
+  <si>
+    <t>Config File</t>
+  </si>
+  <si>
+    <t>SelectSubTreeConfig</t>
+  </si>
+  <si>
+    <t>选择子树配置文件</t>
+  </si>
+  <si>
+    <t>Select the subtree config file</t>
+  </si>
+  <si>
+    <t>ChangeSubtreeToConfig</t>
+  </si>
+  <si>
+    <t>将子树存储为配置文件</t>
+  </si>
+  <si>
+    <t>Change the subtree to config file</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>英文:</t>
+  </si>
+  <si>
+    <t>English:</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>中文:</t>
+  </si>
+  <si>
+    <t>ParameterNameRules</t>
+  </si>
+  <si>
+    <t>参数名只能包含:数字、字母、下划线，且数字不能放在第一个字符位置</t>
+  </si>
+  <si>
+    <t>The parameter name can contain only digits, letters, and underscores (_), and cannot start with a digit</t>
+  </si>
+  <si>
+    <t>FileNameReadOnly</t>
+  </si>
+  <si>
+    <t>此处字段名只读</t>
+  </si>
+  <si>
+    <t>The field name is read only</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>GlobalParameter</t>
+  </si>
+  <si>
+    <t>全局变量</t>
+  </si>
+  <si>
+    <t>Global parameter</t>
+  </si>
+  <si>
+    <t>ImportParameter</t>
+  </si>
+  <si>
+    <t>导入变量</t>
+  </si>
+  <si>
+    <t>Import parameter</t>
+  </si>
+  <si>
+    <t>ConditionParameters</t>
+  </si>
+  <si>
+    <t>条件参数</t>
+  </si>
+  <si>
+    <t>Condition parameters</t>
+  </si>
+  <si>
+    <t>Add Condition</t>
+  </si>
+  <si>
+    <t>RuntimeParameter</t>
+  </si>
+  <si>
+    <t>运行时变量</t>
+  </si>
+  <si>
+    <t>Runtime parameter</t>
+  </si>
+  <si>
+    <t>Greater</t>
+  </si>
+  <si>
+    <t>大于</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater </t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>小于</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>等于</t>
+  </si>
+  <si>
+    <t>NotEqual</t>
+  </si>
+  <si>
+    <t>不等于</t>
+  </si>
+  <si>
+    <t>Not Equal</t>
+  </si>
+  <si>
+    <t>GreaterOrEqual</t>
+  </si>
+  <si>
+    <t>大于等于</t>
+  </si>
+  <si>
+    <t>LessOrEqual</t>
+  </si>
+  <si>
+    <t>小于等于</t>
   </si>
 </sst>
 </file>
@@ -1264,22 +1663,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7.49166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.275" style="1" customWidth="1"/>
+    <col min="4" max="4" width="88.6833333333333" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1701,6 +2100,734 @@
       </c>
       <c r="D30" s="1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="6">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="6">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="6">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="6">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="6">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="6">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="6">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="6">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="6">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="6">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="6">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="6">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="6">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="6">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="6">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="6">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="6">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="6">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6">
+        <v>78</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="239">
   <si>
     <t>ID</t>
   </si>
@@ -631,6 +631,108 @@
   </si>
   <si>
     <t>小于等于</t>
+  </si>
+  <si>
+    <t>SelectNode</t>
+  </si>
+  <si>
+    <t>选择节点</t>
+  </si>
+  <si>
+    <t>SequenceNode</t>
+  </si>
+  <si>
+    <t>顺序节点</t>
+  </si>
+  <si>
+    <t>RandomNode</t>
+  </si>
+  <si>
+    <t>随机节点</t>
+  </si>
+  <si>
+    <t>RandomSequeuece</t>
+  </si>
+  <si>
+    <t>随机顺序节点</t>
+  </si>
+  <si>
+    <t>RandomPriority</t>
+  </si>
+  <si>
+    <t>随机权重节点</t>
+  </si>
+  <si>
+    <t>ParallelNode</t>
+  </si>
+  <si>
+    <t>并行节点</t>
+  </si>
+  <si>
+    <t>ParalleSelect</t>
+  </si>
+  <si>
+    <t>并行选择节点</t>
+  </si>
+  <si>
+    <t>ParalleAll</t>
+  </si>
+  <si>
+    <t>并行执行所有节点</t>
+  </si>
+  <si>
+    <t>IfJudgeParallel</t>
+  </si>
+  <si>
+    <t>IF 判断并行节点</t>
+  </si>
+  <si>
+    <t>IfJudgeSequence</t>
+  </si>
+  <si>
+    <t>IF 判断顺序节点</t>
+  </si>
+  <si>
+    <t>DecoratorInverter</t>
+  </si>
+  <si>
+    <t>修饰节点_取反</t>
+  </si>
+  <si>
+    <t>DecoratorRepeat</t>
+  </si>
+  <si>
+    <t>修饰节点_重复</t>
+  </si>
+  <si>
+    <t>DecoratorReturnSuccess</t>
+  </si>
+  <si>
+    <t>修饰_返回Success</t>
+  </si>
+  <si>
+    <t>DecoratorUntilFail</t>
+  </si>
+  <si>
+    <t>修饰_直到Fail</t>
+  </si>
+  <si>
+    <t>DecoratorUntilSuccess</t>
+  </si>
+  <si>
+    <t>修饰_直到Success</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>SubTreeNode</t>
+  </si>
+  <si>
+    <t>SubTree</t>
   </si>
 </sst>
 </file>
@@ -1663,14 +1765,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomRight" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -2828,6 +2930,258 @@
       </c>
       <c r="D82" s="1" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="6">
+        <v>80</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6">
+        <v>81</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="6">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="6">
+        <v>83</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="6">
+        <v>84</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="6">
+        <v>85</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="6">
+        <v>86</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="6">
+        <v>87</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="6">
+        <v>88</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="6">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="6">
+        <v>90</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="6">
+        <v>91</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="6">
+        <v>93</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="6">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="6">
+        <v>95</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="6">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -705,6 +705,12 @@
     <t>修饰节点_重复</t>
   </si>
   <si>
+    <t>DecoratorReturnFail</t>
+  </si>
+  <si>
+    <t>修饰_返回Fail</t>
+  </si>
+  <si>
     <t>DecoratorReturnSuccess</t>
   </si>
   <si>
@@ -732,7 +738,7 @@
     <t>SubTreeNode</t>
   </si>
   <si>
-    <t>SubTree</t>
+    <t>子树节点</t>
   </si>
 </sst>
 </file>
@@ -740,9 +746,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -768,7 +774,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,6 +788,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -789,7 +825,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,6 +854,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -813,9 +872,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,59 +916,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -944,13 +950,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +1046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,151 +1070,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,35 +1174,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,6 +1196,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,19 +1242,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,145 +1262,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1765,14 +1771,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B103" sqref="B103"/>
+      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -3150,7 +3156,7 @@
         <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>235</v>
@@ -3161,13 +3167,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3175,13 +3181,27 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>237</v>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="6">
+        <v>97</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="244">
   <si>
     <t>ID</t>
   </si>
@@ -739,6 +739,15 @@
   </si>
   <si>
     <t>子树节点</t>
+  </si>
+  <si>
+    <t>NoSelectNode</t>
+  </si>
+  <si>
+    <t>没有选择节点</t>
+  </si>
+  <si>
+    <t>No select node</t>
   </si>
 </sst>
 </file>
@@ -746,9 +755,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -774,7 +783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,36 +797,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -825,22 +804,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,14 +818,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -872,9 +828,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,6 +872,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -950,187 +959,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,13 +1183,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,30 +1227,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,17 +1249,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,10 +1271,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,133 +1283,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1771,14 +1780,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -3202,6 +3211,20 @@
       </c>
       <c r="D101" s="1" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="6">
+        <v>98</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="280">
   <si>
     <t>ID</t>
   </si>
@@ -748,6 +748,254 @@
   </si>
   <si>
     <t>No select node</t>
+  </si>
+  <si>
+    <t>SelectNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>选择节点：依次从头顺次遍历执行所有子节点 \n
+当前执行节点返回 Success，退出停止，向父节点 \n
+返回 Success \n\n
+当前执行节点返回 Fail，退出当前节点 \n
+继续执行下一个节点 \n\n
+当前执行节点返回 Running, 记录当前节点，向父节 \n
+点返回 Running，下次执行直接从该节点开始 \n\n
+如果所有节点都返回Fail，执行完所有节点后 \n
+向父节点返回 Fail; \n\n</t>
+  </si>
+  <si>
+    <t>Select node: Execute all child nodes in sequence \n \n
+The current executing node returns Success,exits \n
+and stop,   returns Success to the parent node  \n \n
+The current execution node returns Fail,exits the\n
+current node,Proceed to the next node \n \n
+The current executing node returns Running, recording \n
+the current node, returns Running to the parent node, \n
+and the next execution starts from this node \n \n
+If all nodes return Fail, after all nodes are executed, \n
+Return Fail to the parent node \n \n</t>
+  </si>
+  <si>
+    <t>SequenceNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>顺序节点：依次执行子节点 \n
+当前执行节点返回 Success，就继续执行后续节点 \n\n
+当前执行节点返回 Fail，退出停止，向父节点 \n
+返回 Fail，下次执行直接从第一个节点开始 \n\n
+当前执行节点返回 Running, 记录当前节点，向父节 \n
+点返回 Running，下次执行直接从该节点开始 \n\n
+如果所有节点都返回 Success，向父节点返回 Success \n</t>
+  </si>
+  <si>
+    <t>Sequence node: Executes the child nodes in sequence  \n\n
+If the current executing node returns Success, execute \n
+the next node                                          \n\n
+The current executing node returns Fail, exits and     \n
+stops, return Fail to the parent node, and the next    \n
+execution starts from the first node                   \n\n
+The current executing node returns Running, recording  \n
+the current node, returns Running to the parent node,  \n
+and the next execution starts from this node           \n
+If all nodes return Success, return Success to the     \n
+parent node                                            \n</t>
+  </si>
+  <si>
+    <t>RandomSequenceNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>随机顺序节点：(参考顺序节点) \n
+每次随机一个未执行的节点，总随机次数为子节点个数 \n\n
+当前执行节点返回 Success，继续随机一个未执行的节点 \n\n
+当前执行节点返回 Fail，退出停止 \n
+向父节点返回 Fail \n\n
+当前执行节点返回 Running, 记录当前节点 \n
+向父节点返回 Running，下次执行直接从该节点开始 \n\n
+如果所有节点都返回 Success \n
+向父节点返回 Success \n\n</t>
+  </si>
+  <si>
+    <t>RandomSequence node :(refer to Sequence node)     \n
+Every time random a unexecuted node and executed  \n
+ the node, the total number of random is the number of       \n
+child nodes                                       \n \n
+The current executing node returns Success,       \n
+random a node and execute                         \n \n
+The current execution node returns Fail, exits    \n
+and stop, Return Fail to the parent node          \n \n
+The current executing node returns Running,       \n
+recording the current node, Return Running to     \n
+the parent node, and the next execution starts    \n
+from that node                                    \n \n
+If all nodes return Success,Returns Success to    \n
+the parent node                                   \n\n</t>
+  </si>
+  <si>
+    <t>RandomSelectNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>随机选择节点：(参考选择节点) \n
+每次随机一个未执行的节点，总随机次数为子节点个数 \n\n
+当前执行节点返回 Success，退出停止\n
+向父节点返回 Success \n\n
+当前执行节点返回 Fail，退出当前节点 \n
+继续随机一个未执行的节点开始执行 \n\n
+当前执行节点返回 Running, 记录当前节点 \n
+向父节点返回 Running，下次执行直接从该节点开始 \n\n
+如果所有节点都返回Fail，执行完所有节点后 \n
+向父节点返回 Fail; \n\n</t>
+  </si>
+  <si>
+    <t>Randoml select nodes :(refer to select nodes)          \n
+Every time random a unexecuted node and executed       \n
+the node, the total number of random is the number      \n
+of child nodes                                          \n\n
+The current executing node returns Success, exits and    \n
+stop, Returns Success to the parent node                 \n\n
+The current execution node returns Fail, exits the      \n
+current node, random a unexecuted node and executed     \n\n
+The current executing node returns Running, recording    \n
+the current node, Return Running to the parent node,     \n
+the next execution starts from that node                 \n\n
+If all nodes return Fail, after all nodes are executed   \n
+Return Fail to the parent node                            \n\n</t>
+  </si>
+  <si>
+    <t>RandomPriorityNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>随机权重节点：(参考随机选择节点) \n
+每次根据节点权重随机一个未执行的节点 \n
+总随机次数为子节点个数 \n\n
+当前执行节点返回 Success，退出停止 \n
+向父节点返回 Success \n\n
+当前执行节点返回 Fail，退出当前节点 \n
+继续随机一个未执行的节点开始执行 \n\n
+当前执行节点返回 Running, 记录当前节点 \n
+向父节点返回 Running \n
+下次执行直接从该节点开始 \n\n
+如果所有节点都返回Fail，执行完所有节点后 \n
+向父节点返回 Fail; \n</t>
+  </si>
+  <si>
+    <t>ParallelSelectNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>并行选择节点：依次从头顺次遍历执行所有子节点 \n\n 
+当前执行节点返回 Success，退出停止，向父节点 \n 
+返回 Success \n\n 
+当前执行节点返回 Running, 记录当前节点，继续 \n 
+执行下一个节点，记录所有返回 Running 的节点 \n\n 
+当前执行节点返回 Fail，继续执行下一个节点 \n\n 
+如果没有节点返回 Success， \n 
+如果 Running 的节点数大于 0 向父节点返回 Running \n 
+否则向父节点返回 Fail \n;</t>
+  </si>
+  <si>
+    <t>ParallelAllNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>并行执行所有节点：依次从头顺次遍历执行所有子节点 \n\n 
+当前执行节点返回 Success、 Fail、Running 都继续 \n 
+执行下一个节点，分别记录返回三种结果的节点个数 \n\n 
+执行完所有节点后 \n 
+如果所有节点都返回 Success 向父节点返回 Success \n 
+如果所有节点都返回 Fail 向父节点返回 Fail \n 
+否则一定有节点返回了Running 向父节点返回 Running \n;</t>
+  </si>
+  <si>
+    <t>ParallelNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>并行节点：依次从头顺次遍历执行所有子节点 \n\n 
+当前执行节点返回 Fail，退出停止，向父节点 \n 
+返回 Fail \n\n 
+当前执行节点返回 Success，记录当前节点，继续 \n 
+执行下一个节点，记录所有返回 Success 的节点\n\n 
+当前执行节点返回 Running, 记录当前节点，继续 \n 
+执行下一个节点，记录所有返回 Running 的节点 \n\n 
+如果没有节点返回 Fail， \n 
+如果所有节点都返回 Success 向父节点返回 Success \n 
+否则向父节点返回 Running \n;</t>
+  </si>
+  <si>
+    <t>IfJudgeSequenceNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>if判断顺序节点：\n 
+只能有 二或者三个子节点\n 
+第一个为判断节点只能返回Success、Fail \n\n 
+因为是顺序节点，每次执行时 \n 
+如果当前有正在执行的第二、第三个节点则\n 
+直接执行它的 Execute \n\n 
+如果没有，则执行第一个节点，根据第一个节点返回\n 
+结果 Success、Fail，选择执行第二、第三个节点;\n</t>
+  </si>
+  <si>
+    <t>IfJudgeParallelNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>if判断并行节点：\n 
+只能有 二或者三个子节点\n 
+第一个为判断节点只能返回Success、Fail \n\n 
+因为是并行节点，每次执行都会先执行第一个节点\n 
+根据第一个节点返回结果选择执行第二个、第三个节点 \n\n 
+如果上次执行的是第二、三个节点中的某一个 \n 
+当前要执行的节点跟上次相同，则会直接执行 Execute \n 
+如果当前要执行的节点跟上次不同，则会执行上次节点 \n 
+OnExit , 新节点则走 OnEnter、Execute;</t>
+  </si>
+  <si>
+    <t>DecoratorUntilSuccessNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>修饰_直到Success：\n 
+执行节点 \n 
+如果节点返回结果不是 Success \n 
+向父节点返回 Running \n\n 
+直到节点返回 Success，向父节点返回 Success</t>
+  </si>
+  <si>
+    <t>DecoratorUntilFailNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>修饰_直到Fail：\n 
+执行节点 \n 
+如果节点返回结果不是 Fail \n 
+向父节点返回 Running \n\n 
+直到节点返回 Fail，向父节点返回 Success</t>
+  </si>
+  <si>
+    <t>DecoratorReturnSuccessNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>修饰_返回Success：\n 
+执行节点，无论节点返回 Success、Fail、Running \n 
+执行结束后永远向父节点返回 Success  \n</t>
+  </si>
+  <si>
+    <t>DecoratorReturnFailNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>修饰_返回Fail：\n 
+执行节点，无论节点返回 Success、Fail、Running \n 
+执行结束后永远向父节点返回 Fail  \n</t>
+  </si>
+  <si>
+    <t>DecoratorRepeatNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>修饰节点_重复: \n 
+开始执行该节点时，将记录次数清零 \n 
+顺序执行所有子节点(记为 1 次)，不关心节点返回结果 \n\n 
+如果 执行次数 &lt; 配置执行次数 向父节点返回 Running \n 
+如果 执行次数 &gt;= 配置执行次数 向父节点返回 Success \n</t>
+  </si>
+  <si>
+    <t>DecoratorInverterNodeFunctionDescript</t>
+  </si>
+  <si>
+    <t>取反修饰节点 Inverter    对子节点执行结果取反</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1661,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1433,6 +1681,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1780,20 +2031,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7.49166666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="67.275" style="1" customWidth="1"/>
     <col min="4" max="4" width="88.6833333333333" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
@@ -3225,6 +3476,194 @@
       </c>
       <c r="D102" s="1" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="103" ht="306" customHeight="1" spans="1:4">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" ht="271" customHeight="1" spans="1:4">
+      <c r="A104" s="6">
+        <v>100</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" ht="367" customHeight="1" spans="1:4">
+      <c r="A105" s="6">
+        <v>101</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" ht="305" customHeight="1" spans="1:4">
+      <c r="A106" s="6">
+        <v>102</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" ht="264" spans="1:3">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" ht="214.5" spans="1:3">
+      <c r="A108" s="6">
+        <v>104</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" ht="148.5" spans="1:3">
+      <c r="A109" s="6">
+        <v>105</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" ht="231" spans="1:3">
+      <c r="A110" s="6">
+        <v>106</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" ht="165" spans="1:3">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" ht="181.5" spans="1:3">
+      <c r="A112" s="6">
+        <v>108</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" ht="99" spans="1:3">
+      <c r="A113" s="6">
+        <v>109</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" ht="99" spans="1:3">
+      <c r="A114" s="6">
+        <v>110</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115" ht="49.5" spans="1:3">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" ht="49.5" spans="1:3">
+      <c r="A116" s="6">
+        <v>112</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" ht="82.5" spans="1:3">
+      <c r="A117" s="6">
+        <v>113</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="6">
+        <v>114</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="291">
   <si>
     <t>ID</t>
   </si>
@@ -788,15 +788,15 @@
 如果所有节点都返回 Success，向父节点返回 Success \n</t>
   </si>
   <si>
-    <t>Sequence node: Executes the child nodes in sequence  \n\n
-If the current executing node returns Success, execute \n
-the next node                                          \n\n
+    <t>Sequence node: Executes the child nodes in sequence  \n \n
+If the current executing node returns Success,  \n
+execute the next node                                          \n \n
 The current executing node returns Fail, exits and     \n
 stops, return Fail to the parent node, and the next    \n
-execution starts from the first node                   \n\n
-The current executing node returns Running, recording  \n
-the current node, returns Running to the parent node,  \n
-and the next execution starts from this node           \n
+execution starts from the first node                   \n \n
+The current executing node returns Running, \n
+recording  the current node, returns Running to the  \n
+parent node,  and the next execution starts from this node           \n \n
 If all nodes return Success, return Success to the     \n
 parent node                                            \n</t>
   </si>
@@ -816,9 +816,9 @@
   </si>
   <si>
     <t>RandomSequence node :(refer to Sequence node)     \n
-Every time random a unexecuted node and executed  \n
- the node, the total number of random is the number of       \n
-child nodes                                       \n \n
+Every time random a unexecuted node and \n
+executed   the node, the total number of random is the      \n
+number of  child nodes                                       \n \n
 The current executing node returns Success,       \n
 random a node and execute                         \n \n
 The current execution node returns Fail, exits    \n
@@ -828,7 +828,7 @@
 the parent node, and the next execution starts    \n
 from that node                                    \n \n
 If all nodes return Success,Returns Success to    \n
-the parent node                                   \n\n</t>
+the parent node                                   \n \n</t>
   </si>
   <si>
     <t>RandomSelectNodeFunctionDescript</t>
@@ -849,16 +849,16 @@
     <t>Randoml select nodes :(refer to select nodes)          \n
 Every time random a unexecuted node and executed       \n
 the node, the total number of random is the number      \n
-of child nodes                                          \n\n
+of child nodes                                          \n \n
 The current executing node returns Success, exits and    \n
-stop, Returns Success to the parent node                 \n\n
+stop, Returns Success to the parent node                 \n \n
 The current execution node returns Fail, exits the      \n
-current node, random a unexecuted node and executed     \n\n
+current node, random a unexecuted node and executed     \n \n
 The current executing node returns Running, recording    \n
 the current node, Return Running to the parent node,     \n
-the next execution starts from that node                 \n\n
+the next execution starts from that node                 \n \n
 If all nodes return Fail, after all nodes are executed   \n
-Return Fail to the parent node                            \n\n</t>
+Return Fail to the parent node                            \n \n</t>
   </si>
   <si>
     <t>RandomPriorityNodeFunctionDescript</t>
@@ -878,6 +878,20 @@
 向父节点返回 Fail; \n</t>
   </si>
   <si>
+    <t>Random Priority node :(refer to random select node)      \n \n
+Random one unexecuted node based on node priority        \n
+The total random number is the number of children        \n \n
+The current executing node returns Success, exits        \n
+and stop, Returns Success to the parent node             \n \n
+The current execution node returns Fail, exits the       \n
+current node, random an unexecuted node and executing    \n \n
+The current executing node returns Running, recording    \n
+the current node, Return Running to the parent node,     \n
+The next execution starts from this node                 \n \n  
+If all nodes return Fail, after all nodes are executed,  \n
+Return Fail to the parent node;                          \n \n</t>
+  </si>
+  <si>
     <t>ParallelSelectNodeFunctionDescript</t>
   </si>
   <si>
@@ -892,6 +906,18 @@
 否则向父节点返回 Fail \n;</t>
   </si>
   <si>
+    <t>Parallel Select node: execute all child nodes in sequence        \n \n
+The current executing node returns Success, exits and      \n
+ stop Return Success to the parent node                                \n \n
+The current executing node returns Running, records          \n
+the current node, and execute the next node,      \n
+         record all nodes  that return Running                                                  \n \n
+The current executing node returns Fail, execute the next node    \n
+If no node returns Success, Return Running to the parent node     \n
+if the number of Running nodes is greater than 0                  \n
+Otherwise returned Fail to the parent node                        \n \n</t>
+  </si>
+  <si>
     <t>ParallelAllNodeFunctionDescript</t>
   </si>
   <si>
@@ -902,6 +928,18 @@
 如果所有节点都返回 Success 向父节点返回 Success \n 
 如果所有节点都返回 Fail 向父节点返回 Fail \n 
 否则一定有节点返回了Running 向父节点返回 Running \n;</t>
+  </si>
+  <si>
+    <t>Parallel All node: Execute all child nodes in sequence       \n \n
+The current execution node returns Success, Fail, or           \n
+Running, Execute the next node, record the number              \n
+of nodes that return three results                             \n \n
+After all nodes are executed                                    \n
+Return Success to the parent node if all nodes return \n
+ Success                                \n \n
+Return Fail to the parent node if all nodes return Fail   \n \n
+Otherwise, some node must return Running, return \n
+Running  to the parent node                                        \n \n</t>
   </si>
   <si>
     <t>ParallelNodeFunctionDescript</t>
@@ -919,17 +957,32 @@
 否则向父节点返回 Running \n;</t>
   </si>
   <si>
+    <t>Parallel node: Execute all child nodes in sequence           \n \n
+The current executing node returns Fail, exits and stops,    \n
+Return Fail to the parent node                               \n \n
+The current executing node returns Success, records          \n
+the current node, and executing the next node, record        \n
+all nodes that return Success                                \n \n
+The current executing node returns Running, records the      \n
+current node, executing the next node and record all         \n
+nodes that return Running                                       \n \n
+If no node returns Fail,                                           \n
+Return Success to the parent node if all nodes return Success        \n
+Return Fail to the parent node if at least one node returns Fail   \n \n
+Otherwise, returned Running to the parent node                   \n</t>
+  </si>
+  <si>
     <t>IfJudgeSequenceNodeFunctionDescript</t>
   </si>
   <si>
-    <t>if判断顺序节点：\n 
-只能有 二或者三个子节点\n 
-第一个为判断节点只能返回Success、Fail \n\n 
-因为是顺序节点，每次执行时 \n 
-如果当前有正在执行的第二、第三个节点则\n 
-直接执行它的 Execute \n\n 
-如果没有，则执行第一个节点，根据第一个节点返回\n 
-结果 Success、Fail，选择执行第二、第三个节点;\n</t>
+    <t>If Judge Sequence node:                                         \n \n
+You can only have two or three children                          \n
+The first is that only Success and Fail are returned             \n \n
+if the second or third nodes return RUNNING last time,            \n
+this time, the node that returned running is executing again     \n \n
+If not, executed the first node, based on the first node          \n
+Results Success or Fail, the second and third nodes               \n
+are selected to execute;                                          \n \n</t>
   </si>
   <si>
     <t>IfJudgeParallelNodeFunctionDescript</t>
@@ -946,6 +999,21 @@
 OnExit , 新节点则走 OnEnter、Execute;</t>
   </si>
   <si>
+    <t>If Judge Parallel node:                                     \n
+You can only have two or three children                     \n
+The first is that only Success and Fail are returned        \n \n
+the first node is executed first with each execution,       \n
+Execute the second or third nodes based on the     \n
+ results of the first node                                             \n \n
+If the second or third nodes to be executed is the      \n
+ same  as the previous one, call the Execute method      \n 
+on this node                              \n \n
+If the second or third nodes to be executed is   \n
+ different   from the last one, call the OnExit method    \n 
+of the previous  node, call the OnEnter and Execute   \n 
+methods of the new node  \n \n</t>
+  </si>
+  <si>
     <t>DecoratorUntilSuccessNodeFunctionDescript</t>
   </si>
   <si>
@@ -956,6 +1024,14 @@
 直到节点返回 Success，向父节点返回 Success</t>
   </si>
   <si>
+    <t>Decorator Until Success node:                             \n \n
+executing the node                                        \n
+If the node returns a result other than Success           \n 
+Return Running to the parent node                         \n \n
+Success is returned to the parent node until the node     \n
+returns Success                                           \n \n</t>
+  </si>
+  <si>
     <t>DecoratorUntilFailNodeFunctionDescript</t>
   </si>
   <si>
@@ -966,6 +1042,14 @@
 直到节点返回 Fail，向父节点返回 Success</t>
   </si>
   <si>
+    <t>Decorator Until Fail node:                             \n \n
+executing the node                                        \n
+If the node returns a result other than Fail           \n 
+Return Running to the parent node                         \n \n
+Success is returned to the parent node until the node     \n
+returns Fail                                           \n \n</t>
+  </si>
+  <si>
     <t>DecoratorReturnSuccessNodeFunctionDescript</t>
   </si>
   <si>
@@ -974,12 +1058,24 @@
 执行结束后永远向父节点返回 Success  \n</t>
   </si>
   <si>
+    <t>Decorator Return Success node:                                           \n \n
+Execute the node, whether the node returns Success, Fail, or Running     \n
+, Fail, or Running  Success is always returned to the           \n
+parent node after execution    \n  \n</t>
+  </si>
+  <si>
     <t>DecoratorReturnFailNodeFunctionDescript</t>
   </si>
   <si>
     <t>修饰_返回Fail：\n 
 执行节点，无论节点返回 Success、Fail、Running \n 
 执行结束后永远向父节点返回 Fail  \n</t>
+  </si>
+  <si>
+    <t>Decorator Return Fail node:                                           \n \n
+Execute the node, whether the node returns Success    \n
+, Fail, or Running Fail is always returned to the           \n 
+parent node after execution    \n \n</t>
   </si>
   <si>
     <t>DecoratorRepeatNodeFunctionDescript</t>
@@ -992,10 +1088,24 @@
 如果 执行次数 &gt;= 配置执行次数 向父节点返回 Success \n</t>
   </si>
   <si>
+    <t>Decorator Repeat node:                                          \n \n
+When the node is started, the number of records is              \n
+cleared to zero                                                 \n \n
+Execute all child nodes in sequence, record execution times     \n \n
+If the number of executions &lt; the Configure number,             \n
+return Running to the parent node                               \n \n
+If the number of executions &gt;=the Configure number,             \n
+return Success to the parent node                               \n \n</t>
+  </si>
+  <si>
     <t>DecoratorInverterNodeFunctionDescript</t>
   </si>
   <si>
     <t>取反修饰节点 Inverter    对子节点执行结果取反</t>
+  </si>
+  <si>
+    <t>Decorator Inverter node:                               \n \n
+reversed the result of executing the child node        \n \n</t>
   </si>
 </sst>
 </file>
@@ -2034,11 +2144,11 @@
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -3534,7 +3644,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="107" ht="264" spans="1:3">
+    <row r="107" ht="318" customHeight="1" spans="1:4">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -3544,126 +3654,162 @@
       <c r="C107" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="108" ht="214.5" spans="1:3">
+      <c r="D107" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" ht="258" customHeight="1" spans="1:4">
       <c r="A108" s="6">
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" ht="148.5" spans="1:3">
+        <v>260</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" ht="247" customHeight="1" spans="1:4">
       <c r="A109" s="6">
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="110" ht="231" spans="1:3">
+        <v>263</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" ht="352" customHeight="1" spans="1:4">
       <c r="A110" s="6">
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="111" ht="165" spans="1:3">
+        <v>266</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" ht="220" customHeight="1" spans="1:4">
       <c r="A111" s="1">
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="112" ht="181.5" spans="1:3">
+        <v>266</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" ht="301" customHeight="1" spans="1:4">
       <c r="A112" s="6">
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="113" ht="99" spans="1:3">
+        <v>271</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="113" ht="151" customHeight="1" spans="1:4">
       <c r="A113" s="6">
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" ht="99" spans="1:3">
+        <v>274</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" ht="170" customHeight="1" spans="1:4">
       <c r="A114" s="6">
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="115" ht="49.5" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" ht="88" customHeight="1" spans="1:4">
       <c r="A115" s="1">
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" ht="49.5" spans="1:3">
+        <v>280</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" ht="87" customHeight="1" spans="1:4">
       <c r="A116" s="6">
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="117" ht="82.5" spans="1:3">
+        <v>283</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" ht="246" customHeight="1" spans="1:4">
       <c r="A117" s="6">
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>286</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="118" ht="65" customHeight="1" spans="1:4">
       <c r="A118" s="6">
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="288">
   <si>
     <t>ID</t>
   </si>
@@ -516,16 +516,7 @@
     <t>English</t>
   </si>
   <si>
-    <t>英文:</t>
-  </si>
-  <si>
-    <t>English:</t>
-  </si>
-  <si>
     <t>Chinese</t>
-  </si>
-  <si>
-    <t>中文:</t>
   </si>
   <si>
     <t>ParameterNameRules</t>
@@ -2144,11 +2135,11 @@
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -3092,10 +3083,10 @@
         <v>165</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3103,13 +3094,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3117,13 +3108,13 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3131,13 +3122,13 @@
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3145,13 +3136,13 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3159,13 +3150,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3173,13 +3164,13 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3187,13 +3178,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3207,7 +3198,7 @@
         <v>139</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3215,13 +3206,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3229,13 +3220,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3243,13 +3234,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3257,13 +3248,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3271,13 +3262,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3285,13 +3276,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3299,13 +3290,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3313,13 +3304,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3327,13 +3318,13 @@
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3341,13 +3332,13 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3355,13 +3346,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3369,13 +3360,13 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3383,13 +3374,13 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3397,13 +3388,13 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3411,13 +3402,13 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3425,13 +3416,13 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3439,13 +3430,13 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3453,13 +3444,13 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3467,13 +3458,13 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3481,13 +3472,13 @@
         <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3495,13 +3486,13 @@
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3509,13 +3500,13 @@
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3523,13 +3514,13 @@
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3537,13 +3528,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3551,13 +3542,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3565,13 +3556,13 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3579,13 +3570,13 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" ht="306" customHeight="1" spans="1:4">
@@ -3593,13 +3584,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" ht="271" customHeight="1" spans="1:4">
@@ -3607,13 +3598,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" ht="367" customHeight="1" spans="1:4">
@@ -3621,13 +3612,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" ht="305" customHeight="1" spans="1:4">
@@ -3635,13 +3626,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" ht="318" customHeight="1" spans="1:4">
@@ -3649,13 +3640,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" ht="258" customHeight="1" spans="1:4">
@@ -3663,13 +3654,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" ht="247" customHeight="1" spans="1:4">
@@ -3677,13 +3668,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" ht="352" customHeight="1" spans="1:4">
@@ -3691,13 +3682,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" ht="220" customHeight="1" spans="1:4">
@@ -3705,13 +3696,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="112" ht="301" customHeight="1" spans="1:4">
@@ -3719,13 +3710,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" ht="151" customHeight="1" spans="1:4">
@@ -3733,13 +3724,13 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" ht="170" customHeight="1" spans="1:4">
@@ -3747,13 +3738,13 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" ht="88" customHeight="1" spans="1:4">
@@ -3761,13 +3752,13 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" ht="87" customHeight="1" spans="1:4">
@@ -3775,13 +3766,13 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" ht="246" customHeight="1" spans="1:4">
@@ -3789,13 +3780,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" ht="65" customHeight="1" spans="1:4">
@@ -3803,13 +3794,13 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="299">
   <si>
     <t>ID</t>
   </si>
@@ -39,486 +39,486 @@
     <t>文本key</t>
   </si>
   <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>SelectFile</t>
+  </si>
+  <si>
+    <t>选择文件</t>
+  </si>
+  <si>
+    <t>SaveFile</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>DeleteFile</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>UpdateFile</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>MergeFile</t>
+  </si>
+  <si>
+    <t>合并</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>Descript</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>Inspect</t>
+  </si>
+  <si>
+    <t>视图面板</t>
+  </si>
+  <si>
+    <t>Make Transition</t>
+  </si>
+  <si>
+    <t>连线</t>
+  </si>
+  <si>
+    <t>Delete Node</t>
+  </si>
+  <si>
+    <t>删除节点</t>
+  </si>
+  <si>
+    <t>Remove Parent</t>
+  </si>
+  <si>
+    <t>移除父节点</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>DeleteNodeConfirm</t>
+  </si>
+  <si>
+    <t>确定要删除节点吗？</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the node？</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>DeleteParentConfirm</t>
+  </si>
+  <si>
+    <t>确定要删除父节点吗？</t>
+  </si>
+  <si>
+    <t>Are you sure you want to remove the parent node?</t>
+  </si>
+  <si>
+    <t>CompositeNode</t>
+  </si>
+  <si>
+    <t>组合节点</t>
+  </si>
+  <si>
+    <t>DecoratorNode</t>
+  </si>
+  <si>
+    <t>修饰节点</t>
+  </si>
+  <si>
+    <t>ConditionsNode</t>
+  </si>
+  <si>
+    <t>条件节点</t>
+  </si>
+  <si>
+    <t>ActionNode</t>
+  </si>
+  <si>
+    <t>行为节点</t>
+  </si>
+  <si>
+    <t>Add Node</t>
+  </si>
+  <si>
+    <t>添加节点</t>
+  </si>
+  <si>
+    <t>AddSubTree</t>
+  </si>
+  <si>
+    <t>添加子树</t>
+  </si>
+  <si>
+    <t>MultipleRootNode</t>
+  </si>
+  <si>
+    <t>有多个根节点</t>
+  </si>
+  <si>
+    <t>There are multiple root nodes</t>
+  </si>
+  <si>
+    <t>MustBeARootNode</t>
+  </si>
+  <si>
+    <t>必须有一个根节点</t>
+  </si>
+  <si>
+    <t>There must be a root node</t>
+  </si>
+  <si>
+    <t>RootCannotHaveParent</t>
+  </si>
+  <si>
+    <t>跟节点 ： {0}  不能有父节点</t>
+  </si>
+  <si>
+    <t>The root node: {0} can't have a parent node</t>
+  </si>
+  <si>
+    <t>NodeCannotHaveChilds</t>
+  </si>
+  <si>
+    <t>节点：{0} {1} 不能有子节点</t>
+  </si>
+  <si>
+    <t>The node: {0} {1}  cannot have child nodes</t>
+  </si>
+  <si>
+    <t>FileDoesNotExist</t>
+  </si>
+  <si>
+    <t>文件不存在：{0}</t>
+  </si>
+  <si>
+    <t>File does not exist:{0}</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>FileNameCannotEmpty</t>
+  </si>
+  <si>
+    <t>文件名不能为空</t>
+  </si>
+  <si>
+    <t>The file name cannot be empty</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>好的</t>
+  </si>
+  <si>
+    <t>FileNameTooLong</t>
+  </si>
+  <si>
+    <t>文件名过长，不能大于20个字符</t>
+  </si>
+  <si>
+    <t>The file name is too long and cannot exceed 20 characters</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>替换</t>
+  </si>
+  <si>
+    <t>FileExistWantReplace</t>
+  </si>
+  <si>
+    <t>文件已存在, 是否替换新文件</t>
+  </si>
+  <si>
+    <t>The file already exists. Do you want to replace the file</t>
+  </si>
+  <si>
+    <t>SelectConfigFile</t>
+  </si>
+  <si>
+    <t>选择配置文件</t>
+  </si>
+  <si>
+    <t>Select a config file</t>
+  </si>
+  <si>
+    <t>ID:{0}</t>
+  </si>
+  <si>
+    <t>NodeId</t>
+  </si>
+  <si>
+    <t>节点ID</t>
+  </si>
+  <si>
+    <t>NodeID</t>
+  </si>
+  <si>
+    <t>PrintParentPaths</t>
+  </si>
+  <si>
+    <t>打印节点所有父节点路径</t>
+  </si>
+  <si>
+    <t>Prints all parent paths</t>
+  </si>
+  <si>
+    <t>ClassIdentification</t>
+  </si>
+  <si>
+    <t>类标识_{0}</t>
+  </si>
+  <si>
+    <t>Class identification _ {0}</t>
+  </si>
+  <si>
+    <t>ParentNode</t>
+  </si>
+  <si>
+    <t>父节点_{0}</t>
+  </si>
+  <si>
+    <t>ParentNode_{0}</t>
+  </si>
+  <si>
+    <t>BelongSubTree</t>
+  </si>
+  <si>
+    <t>所属子树ID:{0}</t>
+  </si>
+  <si>
+    <t>Belong to SubTreeID:{0}</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>RootNode</t>
+  </si>
+  <si>
+    <t>根节点</t>
+  </si>
+  <si>
+    <t>SubTreeEntryNode</t>
+  </si>
+  <si>
+    <t>子树入口节点</t>
+  </si>
+  <si>
+    <t>SubTree entry node</t>
+  </si>
+  <si>
+    <t>SyncMoveChild</t>
+  </si>
+  <si>
+    <t>同步移动子节点</t>
+  </si>
+  <si>
+    <t>Move the child node synchronously</t>
+  </si>
+  <si>
+    <t>FunctionComposite</t>
+  </si>
+  <si>
+    <t>组合节点功能描述</t>
+  </si>
+  <si>
+    <t>Function description of the composite node</t>
+  </si>
+  <si>
+    <t>AddGroup</t>
+  </si>
+  <si>
+    <t>添加组</t>
+  </si>
+  <si>
+    <t>IfNodeMaxChild</t>
+  </si>
+  <si>
+    <t>判断节点 {0} 最多只能有三个子节点</t>
+  </si>
+  <si>
+    <t>If Node {0} can have a maximum of three child nodes</t>
+  </si>
+  <si>
+    <t>NodeType</t>
+  </si>
+  <si>
+    <t>节点类型</t>
+  </si>
+  <si>
+    <t>ExecuteConditional</t>
+  </si>
+  <si>
+    <t>执行条件</t>
+  </si>
+  <si>
+    <t>Execute conditional</t>
+  </si>
+  <si>
+    <t>DefaultResult</t>
+  </si>
+  <si>
+    <t>默认返回结果</t>
+  </si>
+  <si>
+    <t>Default return result</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>AddCondition</t>
+  </si>
+  <si>
+    <t>添加条件</t>
+  </si>
+  <si>
+    <t>NoParameterCanBeAdd</t>
+  </si>
+  <si>
+    <t>没有参数可添加，请先添加参数</t>
+  </si>
+  <si>
+    <t>No parameters can be added, please add parameters</t>
+  </si>
+  <si>
+    <t>NoParameter</t>
+  </si>
+  <si>
+    <t>无可添加的参数</t>
+  </si>
+  <si>
+    <t>No parameters can be added</t>
+  </si>
+  <si>
+    <t>ChildNodePriority</t>
+  </si>
+  <si>
+    <t>子节点:{0} 权值:</t>
+  </si>
+  <si>
+    <t>Child node :{0}  priority</t>
+  </si>
+  <si>
+    <t>RepetitionsTimes</t>
+  </si>
+  <si>
+    <t>重复执行次数</t>
+  </si>
+  <si>
+    <t>Number of repetitions</t>
+  </si>
+  <si>
+    <t>SubTreeValue</t>
+  </si>
+  <si>
+    <t>子树值</t>
+  </si>
+  <si>
+    <t>SubTreeType</t>
+  </si>
+  <si>
+    <t>子树类型</t>
+  </si>
+  <si>
+    <t>ConfigFile</t>
+  </si>
+  <si>
+    <t>配置文件</t>
+  </si>
+  <si>
+    <t>Config File</t>
+  </si>
+  <si>
+    <t>SelectSubTreeConfig</t>
+  </si>
+  <si>
+    <t>选择子树配置文件</t>
+  </si>
+  <si>
+    <t>Select the subtree config file</t>
+  </si>
+  <si>
+    <t>ChangeSubtreeToConfig</t>
+  </si>
+  <si>
+    <t>将子树存储为配置文件</t>
+  </si>
+  <si>
+    <t>Change the subtree to config file</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
     <t>中文</t>
   </si>
   <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>SelectFile</t>
-  </si>
-  <si>
-    <t>选择文件</t>
-  </si>
-  <si>
-    <t>SaveFile</t>
-  </si>
-  <si>
-    <t>保存</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>DeleteFile</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>UpdateFile</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>MergeFile</t>
-  </si>
-  <si>
-    <t>合并</t>
-  </si>
-  <si>
-    <t>FileName</t>
-  </si>
-  <si>
-    <t>文件名</t>
-  </si>
-  <si>
-    <t>Descript</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>Inspect</t>
-  </si>
-  <si>
-    <t>视图面板</t>
-  </si>
-  <si>
-    <t>Make Transition</t>
-  </si>
-  <si>
-    <t>连线</t>
-  </si>
-  <si>
-    <t>Delete Node</t>
-  </si>
-  <si>
-    <t>删除节点</t>
-  </si>
-  <si>
-    <t>Remove Parent</t>
-  </si>
-  <si>
-    <t>移除父节点</t>
-  </si>
-  <si>
-    <t>Tips</t>
-  </si>
-  <si>
-    <t>提示</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>DeleteNodeConfirm</t>
-  </si>
-  <si>
-    <t>确定要删除节点吗？</t>
-  </si>
-  <si>
-    <t>Are you sure you want to delete the node？</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>是的</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>DeleteParentConfirm</t>
-  </si>
-  <si>
-    <t>确定要删除父节点吗？</t>
-  </si>
-  <si>
-    <t>Are you sure you want to remove the parent node?</t>
-  </si>
-  <si>
-    <t>CompositeNode</t>
-  </si>
-  <si>
-    <t>组合节点</t>
-  </si>
-  <si>
-    <t>DecoratorNode</t>
-  </si>
-  <si>
-    <t>修饰节点</t>
-  </si>
-  <si>
-    <t>ConditionsNode</t>
-  </si>
-  <si>
-    <t>条件节点</t>
-  </si>
-  <si>
-    <t>ActionNode</t>
-  </si>
-  <si>
-    <t>行为节点</t>
-  </si>
-  <si>
-    <t>Add Node</t>
-  </si>
-  <si>
-    <t>添加节点</t>
-  </si>
-  <si>
-    <t>AddSubTree</t>
-  </si>
-  <si>
-    <t>添加子树</t>
-  </si>
-  <si>
-    <t>MultipleRootNode</t>
-  </si>
-  <si>
-    <t>有多个根节点</t>
-  </si>
-  <si>
-    <t>There are multiple root nodes</t>
-  </si>
-  <si>
-    <t>MustBeARootNode</t>
-  </si>
-  <si>
-    <t>必须有一个根节点</t>
-  </si>
-  <si>
-    <t>There must be a root node</t>
-  </si>
-  <si>
-    <t>RootCannotHaveParent</t>
-  </si>
-  <si>
-    <t>跟节点 ： {0}  不能有父节点</t>
-  </si>
-  <si>
-    <t>The root node: {0} can't have a parent node</t>
-  </si>
-  <si>
-    <t>NodeCannotHaveChilds</t>
-  </si>
-  <si>
-    <t>节点：{0} {1} 不能有子节点</t>
-  </si>
-  <si>
-    <t>The node: {0} {1}  cannot have child nodes</t>
-  </si>
-  <si>
-    <t>FileDoesNotExist</t>
-  </si>
-  <si>
-    <t>文件不存在：{0}</t>
-  </si>
-  <si>
-    <t>File does not exist:{0}</t>
-  </si>
-  <si>
-    <t>Warning</t>
-  </si>
-  <si>
-    <t>警告</t>
-  </si>
-  <si>
-    <t>FileNameCannotEmpty</t>
-  </si>
-  <si>
-    <t>文件名不能为空</t>
-  </si>
-  <si>
-    <t>The file name cannot be empty</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>好的</t>
-  </si>
-  <si>
-    <t>FileNameTooLong</t>
-  </si>
-  <si>
-    <t>文件名过长，不能大于20个字符</t>
-  </si>
-  <si>
-    <t>The file name is too long and cannot exceed 20 characters</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Replace</t>
-  </si>
-  <si>
-    <t>替换</t>
-  </si>
-  <si>
-    <t>FileExistWantReplace</t>
-  </si>
-  <si>
-    <t>文件已存在, 是否替换新文件</t>
-  </si>
-  <si>
-    <t>The file already exists. Do you want to replace the file</t>
-  </si>
-  <si>
-    <t>SelectConfigFile</t>
-  </si>
-  <si>
-    <t>选择配置文件</t>
-  </si>
-  <si>
-    <t>Select a config file</t>
-  </si>
-  <si>
-    <t>ID:{0}</t>
-  </si>
-  <si>
-    <t>NodeId</t>
-  </si>
-  <si>
-    <t>节点ID</t>
-  </si>
-  <si>
-    <t>NodeID</t>
-  </si>
-  <si>
-    <t>PrintParentPaths</t>
-  </si>
-  <si>
-    <t>打印节点所有父节点路径</t>
-  </si>
-  <si>
-    <t>Prints all parent paths</t>
-  </si>
-  <si>
-    <t>ClassIdentification</t>
-  </si>
-  <si>
-    <t>类标识_{0}</t>
-  </si>
-  <si>
-    <t>Class identification _ {0}</t>
-  </si>
-  <si>
-    <t>ParentNode</t>
-  </si>
-  <si>
-    <t>父节点_{0}</t>
-  </si>
-  <si>
-    <t>ParentNode_{0}</t>
-  </si>
-  <si>
-    <t>BelongSubTree</t>
-  </si>
-  <si>
-    <t>所属子树ID:{0}</t>
-  </si>
-  <si>
-    <t>Belong to SubTreeID:{0}</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>RootNode</t>
-  </si>
-  <si>
-    <t>根节点</t>
-  </si>
-  <si>
-    <t>SubTreeEntryNode</t>
-  </si>
-  <si>
-    <t>子树入口节点</t>
-  </si>
-  <si>
-    <t>SubTree entry node</t>
-  </si>
-  <si>
-    <t>SyncMoveChild</t>
-  </si>
-  <si>
-    <t>同步移动子节点</t>
-  </si>
-  <si>
-    <t>Move the child node synchronously</t>
-  </si>
-  <si>
-    <t>FunctionComposite</t>
-  </si>
-  <si>
-    <t>组合节点功能描述</t>
-  </si>
-  <si>
-    <t>Function description of the composite node</t>
-  </si>
-  <si>
-    <t>AddGroup</t>
-  </si>
-  <si>
-    <t>添加组</t>
-  </si>
-  <si>
-    <t>IfNodeMaxChild</t>
-  </si>
-  <si>
-    <t>判断节点 {0} 最多只能有三个子节点</t>
-  </si>
-  <si>
-    <t>If Node {0} can have a maximum of three child nodes</t>
-  </si>
-  <si>
-    <t>NodeType</t>
-  </si>
-  <si>
-    <t>节点类型</t>
-  </si>
-  <si>
-    <t>ExecuteConditional</t>
-  </si>
-  <si>
-    <t>执行条件</t>
-  </si>
-  <si>
-    <t>Execute conditional</t>
-  </si>
-  <si>
-    <t>DefaultResult</t>
-  </si>
-  <si>
-    <t>默认返回结果</t>
-  </si>
-  <si>
-    <t>Default return result</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>AddCondition</t>
-  </si>
-  <si>
-    <t>添加条件</t>
-  </si>
-  <si>
-    <t>NoParameterCanBeAdd</t>
-  </si>
-  <si>
-    <t>没有参数可添加，请先添加参数</t>
-  </si>
-  <si>
-    <t>No parameters can be added, please add parameters</t>
-  </si>
-  <si>
-    <t>NoParameter</t>
-  </si>
-  <si>
-    <t>无可添加的参数</t>
-  </si>
-  <si>
-    <t>No parameters can be added</t>
-  </si>
-  <si>
-    <t>ChildNodePriority</t>
-  </si>
-  <si>
-    <t>子节点:{0} 权值:</t>
-  </si>
-  <si>
-    <t>Child node :{0}  priority</t>
-  </si>
-  <si>
-    <t>RepetitionsTimes</t>
-  </si>
-  <si>
-    <t>重复执行次数</t>
-  </si>
-  <si>
-    <t>Number of repetitions</t>
-  </si>
-  <si>
-    <t>SubTreeValue</t>
-  </si>
-  <si>
-    <t>子树值</t>
-  </si>
-  <si>
-    <t>SubTreeType</t>
-  </si>
-  <si>
-    <t>子树类型</t>
-  </si>
-  <si>
-    <t>ConfigFile</t>
-  </si>
-  <si>
-    <t>配置文件</t>
-  </si>
-  <si>
-    <t>Config File</t>
-  </si>
-  <si>
-    <t>SelectSubTreeConfig</t>
-  </si>
-  <si>
-    <t>选择子树配置文件</t>
-  </si>
-  <si>
-    <t>Select the subtree config file</t>
-  </si>
-  <si>
-    <t>ChangeSubtreeToConfig</t>
-  </si>
-  <si>
-    <t>将子树存储为配置文件</t>
-  </si>
-  <si>
-    <t>Change the subtree to config file</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
     <t>ParameterNameRules</t>
   </si>
   <si>
@@ -739,6 +739,39 @@
   </si>
   <si>
     <t>No select node</t>
+  </si>
+  <si>
+    <t>CommonChildNodesCanBeEdited</t>
+  </si>
+  <si>
+    <t>普通：可编辑子节点</t>
+  </si>
+  <si>
+    <t>Common: child nodes can be edited</t>
+  </si>
+  <si>
+    <t>ConfigReadConfigFile</t>
+  </si>
+  <si>
+    <t>配置：读取配置文件</t>
+  </si>
+  <si>
+    <t>Configuration: Reads the configuration file</t>
+  </si>
+  <si>
+    <t>IfJudgmentNode</t>
+  </si>
+  <si>
+    <t>if 判断节点</t>
+  </si>
+  <si>
+    <t>If judgment node</t>
+  </si>
+  <si>
+    <t>ExecuteNode</t>
+  </si>
+  <si>
+    <t>执行节点</t>
   </si>
   <si>
     <t>SelectNodeFunctionDescript</t>
@@ -2132,14 +2165,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -3080,13 +3113,13 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3094,13 +3127,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3579,133 +3612,133 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" ht="306" customHeight="1" spans="1:4">
-      <c r="A103" s="1">
+    <row r="103" spans="1:4">
+      <c r="A103" s="6">
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="104" ht="271" customHeight="1" spans="1:4">
+    <row r="104" spans="1:4">
       <c r="A104" s="6">
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="105" ht="367" customHeight="1" spans="1:4">
+    <row r="105" spans="1:4">
       <c r="A105" s="6">
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="106" ht="305" customHeight="1" spans="1:4">
+    <row r="106" spans="1:4">
       <c r="A106" s="6">
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" ht="306" customHeight="1" spans="1:4">
+      <c r="A107" s="6">
+        <v>103</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="107" ht="318" customHeight="1" spans="1:4">
-      <c r="A107" s="1">
-        <v>103</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="D107" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" ht="258" customHeight="1" spans="1:4">
+    </row>
+    <row r="108" ht="271" customHeight="1" spans="1:4">
       <c r="A108" s="6">
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="D108" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="109" ht="247" customHeight="1" spans="1:4">
+    </row>
+    <row r="109" ht="367" customHeight="1" spans="1:4">
       <c r="A109" s="6">
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="D109" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="110" ht="352" customHeight="1" spans="1:4">
+    </row>
+    <row r="110" ht="305" customHeight="1" spans="1:4">
       <c r="A110" s="6">
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D110" s="8" t="s">
+    </row>
+    <row r="111" ht="318" customHeight="1" spans="1:4">
+      <c r="A111" s="6">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="111" ht="220" customHeight="1" spans="1:4">
-      <c r="A111" s="1">
-        <v>107</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="112" ht="301" customHeight="1" spans="1:4">
+    <row r="112" ht="258" customHeight="1" spans="1:4">
       <c r="A112" s="6">
         <v>108</v>
       </c>
@@ -3719,7 +3752,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" ht="151" customHeight="1" spans="1:4">
+    <row r="113" ht="247" customHeight="1" spans="1:4">
       <c r="A113" s="6">
         <v>109</v>
       </c>
@@ -3733,7 +3766,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="114" ht="170" customHeight="1" spans="1:4">
+    <row r="114" ht="352" customHeight="1" spans="1:4">
       <c r="A114" s="6">
         <v>110</v>
       </c>
@@ -3747,60 +3780,116 @@
         <v>275</v>
       </c>
     </row>
-    <row r="115" ht="88" customHeight="1" spans="1:4">
-      <c r="A115" s="1">
+    <row r="115" ht="220" customHeight="1" spans="1:4">
+      <c r="A115" s="6">
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="116" ht="87" customHeight="1" spans="1:4">
+    </row>
+    <row r="116" ht="301" customHeight="1" spans="1:4">
       <c r="A116" s="6">
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="D116" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="117" ht="246" customHeight="1" spans="1:4">
+    </row>
+    <row r="117" ht="151" customHeight="1" spans="1:4">
       <c r="A117" s="6">
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="118" ht="65" customHeight="1" spans="1:4">
+    </row>
+    <row r="118" ht="170" customHeight="1" spans="1:4">
       <c r="A118" s="6">
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D118" s="8" t="s">
+    </row>
+    <row r="119" ht="88" customHeight="1" spans="1:4">
+      <c r="A119" s="6">
+        <v>115</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>287</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" ht="87" customHeight="1" spans="1:4">
+      <c r="A120" s="6">
+        <v>116</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" ht="246" customHeight="1" spans="1:4">
+      <c r="A121" s="6">
+        <v>117</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" ht="65" customHeight="1" spans="1:4">
+      <c r="A122" s="6">
+        <v>118</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/table_text_localization.xlsx
+++ b/table_text_localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="301">
   <si>
     <t>ID</t>
   </si>
@@ -559,6 +559,12 @@
   </si>
   <si>
     <t>Import parameter</t>
+  </si>
+  <si>
+    <t>RemoveUnUseParameter</t>
+  </si>
+  <si>
+    <t>删除未使用变量</t>
   </si>
   <si>
     <t>ConditionParameters</t>
@@ -2165,14 +2171,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B128" sqref="B128"/>
+      <selection pane="bottomRight" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -3217,7 +3223,7 @@
         <v>182</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3225,13 +3231,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3239,13 +3245,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3253,13 +3259,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3267,13 +3273,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3301,7 +3307,7 @@
         <v>196</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3309,13 +3315,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3564,7 +3570,7 @@
         <v>234</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>234</v>
@@ -3575,13 +3581,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3589,13 +3595,13 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3609,7 +3615,7 @@
         <v>239</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3617,13 +3623,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3631,13 +3637,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3645,13 +3651,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3659,142 +3665,142 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="107" ht="306" customHeight="1" spans="1:4">
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="6">
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="108" ht="271" customHeight="1" spans="1:4">
+      <c r="D107" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" ht="306" customHeight="1" spans="1:4">
       <c r="A108" s="6">
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="D108" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="109" ht="367" customHeight="1" spans="1:4">
+    </row>
+    <row r="109" ht="271" customHeight="1" spans="1:4">
       <c r="A109" s="6">
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="D109" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="110" ht="305" customHeight="1" spans="1:4">
+    </row>
+    <row r="110" ht="367" customHeight="1" spans="1:4">
       <c r="A110" s="6">
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="111" ht="318" customHeight="1" spans="1:4">
+    </row>
+    <row r="111" ht="305" customHeight="1" spans="1:4">
       <c r="A111" s="6">
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="D111" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="112" ht="258" customHeight="1" spans="1:4">
+    </row>
+    <row r="112" ht="318" customHeight="1" spans="1:4">
       <c r="A112" s="6">
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="D112" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" ht="247" customHeight="1" spans="1:4">
+    </row>
+    <row r="113" ht="258" customHeight="1" spans="1:4">
       <c r="A113" s="6">
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" ht="352" customHeight="1" spans="1:4">
+    </row>
+    <row r="114" ht="247" customHeight="1" spans="1:4">
       <c r="A114" s="6">
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="D114" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="115" ht="220" customHeight="1" spans="1:4">
+    </row>
+    <row r="115" ht="352" customHeight="1" spans="1:4">
       <c r="A115" s="6">
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="116" ht="301" customHeight="1" spans="1:4">
+    <row r="116" ht="220" customHeight="1" spans="1:4">
       <c r="A116" s="6">
         <v>112</v>
       </c>
@@ -3802,94 +3808,108 @@
         <v>278</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117" ht="151" customHeight="1" spans="1:4">
+    </row>
+    <row r="117" ht="301" customHeight="1" spans="1:4">
       <c r="A117" s="6">
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="118" ht="170" customHeight="1" spans="1:4">
+    </row>
+    <row r="118" ht="151" customHeight="1" spans="1:4">
       <c r="A118" s="6">
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="119" ht="88" customHeight="1" spans="1:4">
+    </row>
+    <row r="119" ht="170" customHeight="1" spans="1:4">
       <c r="A119" s="6">
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" ht="87" customHeight="1" spans="1:4">
+    </row>
+    <row r="120" ht="88" customHeight="1" spans="1:4">
       <c r="A120" s="6">
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="121" ht="246" customHeight="1" spans="1:4">
+    </row>
+    <row r="121" ht="87" customHeight="1" spans="1:4">
       <c r="A121" s="6">
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="122" ht="65" customHeight="1" spans="1:4">
+    </row>
+    <row r="122" ht="246" customHeight="1" spans="1:4">
       <c r="A122" s="6">
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D122" s="8" t="s">
+    </row>
+    <row r="123" ht="65" customHeight="1" spans="1:4">
+      <c r="A123" s="6">
+        <v>119</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>298</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
